--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lama1-Itga7.xlsx
@@ -534,10 +534,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H2">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.349417</v>
+        <v>1.743137</v>
       </c>
       <c r="N2">
-        <v>10.048251</v>
+        <v>5.229411</v>
       </c>
       <c r="O2">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="P2">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="Q2">
-        <v>0.3134529570003334</v>
+        <v>0.01979390168066667</v>
       </c>
       <c r="R2">
-        <v>2.821076613003</v>
+        <v>0.178145115126</v>
       </c>
       <c r="S2">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
       <c r="T2">
-        <v>0.0602955800561437</v>
+        <v>0.03144673183548247</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H3">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,25 +617,25 @@
         <v>1.282876</v>
       </c>
       <c r="N3">
-        <v>3.848628000000001</v>
+        <v>3.848628</v>
       </c>
       <c r="O3">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="P3">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="Q3">
-        <v>0.1200570952093334</v>
+        <v>0.01456748460533334</v>
       </c>
       <c r="R3">
-        <v>1.080513856884</v>
+        <v>0.131107361448</v>
       </c>
       <c r="S3">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
       <c r="T3">
-        <v>0.023094094452887</v>
+        <v>0.02314348071905789</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.09358433333333334</v>
+        <v>0.01135533333333333</v>
       </c>
       <c r="H4">
-        <v>0.280753</v>
+        <v>0.034066</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.917666</v>
+        <v>52.405407</v>
       </c>
       <c r="N4">
-        <v>152.752998</v>
+        <v>157.216221</v>
       </c>
       <c r="O4">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="P4">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="Q4">
-        <v>4.765095827499334</v>
+        <v>0.595080864954</v>
       </c>
       <c r="R4">
-        <v>42.885862447494</v>
+        <v>5.355727784586001</v>
       </c>
       <c r="S4">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
       <c r="T4">
-        <v>0.9166103254909692</v>
+        <v>0.9454097874454597</v>
       </c>
     </row>
   </sheetData>
